--- a/_files/histogram_step_by_step.xlsx
+++ b/_files/histogram_step_by_step.xlsx
@@ -18,6 +18,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$1601</definedName>
     <definedName name="Book1" localSheetId="0">Sheet1!$A$2:$A$1601</definedName>
     <definedName name="Book1_1" localSheetId="0">Sheet1!$C$2:$C$1601</definedName>
+    <definedName name="經排序的X1">#REF!</definedName>
+    <definedName name="對應的X2">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1430,7 +1432,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="2043716048"/>
         <c:axId val="2043721456"/>
@@ -1553,7 +1555,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1613,7 +1615,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2559,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -2660,11 +2662,11 @@
         <v>10.779822696665001</v>
       </c>
       <c r="K3">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H3,Book1_1,"&lt;"&amp;I3)</f>
+        <f t="shared" ref="K3:K33" si="1">COUNTIFS(Book1_1,"&gt;="&amp;H3,Book1_1,"&lt;"&amp;I3)</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="1">K3/$K$202</f>
+        <f t="shared" ref="L3:L66" si="2">K3/$K$202</f>
         <v>0</v>
       </c>
       <c r="M3">
@@ -2687,11 +2689,11 @@
         <v>0.67931667910999993</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="2">I3</f>
+        <f t="shared" ref="H4:H67" si="3">I3</f>
         <v>11.11948103622</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="3">H4+$F$4</f>
+        <f t="shared" ref="I4:I67" si="4">H4+$F$4</f>
         <v>11.79879771533</v>
       </c>
       <c r="J4">
@@ -2699,15 +2701,15 @@
         <v>11.459139375774999</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H4,Book1_1,"&lt;"&amp;I4)</f>
-        <v>0</v>
-      </c>
-      <c r="L4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M4">
-        <f t="shared" ref="M4:M67" si="4">M3+L4</f>
+        <f t="shared" ref="M4:M67" si="5">M3+L4</f>
         <v>1.25E-3</v>
       </c>
     </row>
@@ -2719,11 +2721,11 @@
         <v>16.840718020000001</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.79879771533</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.47811439444</v>
       </c>
       <c r="J5">
@@ -2731,15 +2733,15 @@
         <v>12.138456054885001</v>
       </c>
       <c r="K5">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H5,Book1_1,"&lt;"&amp;I5)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
@@ -2751,11 +2753,11 @@
         <v>19.134662160000001</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.47811439444</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.157431073550001</v>
       </c>
       <c r="J6">
@@ -2763,15 +2765,15 @@
         <v>12.817772733995</v>
       </c>
       <c r="K6">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H6,Book1_1,"&lt;"&amp;I6)</f>
-        <v>0</v>
-      </c>
-      <c r="L6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
@@ -2783,11 +2785,11 @@
         <v>19.91146243</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.157431073550001</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.836747752660001</v>
       </c>
       <c r="J7">
@@ -2795,15 +2797,15 @@
         <v>13.497089413105002</v>
       </c>
       <c r="K7">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H7,Book1_1,"&lt;"&amp;I7)</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
@@ -2815,11 +2817,11 @@
         <v>22.28519519</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.836747752660001</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.516064431770001</v>
       </c>
       <c r="J8">
@@ -2827,15 +2829,15 @@
         <v>14.176406092215</v>
       </c>
       <c r="K8">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H8,Book1_1,"&lt;"&amp;I8)</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
@@ -2847,11 +2849,11 @@
         <v>22.30700135</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.516064431770001</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.195381110880001</v>
       </c>
       <c r="J9">
@@ -2859,15 +2861,15 @@
         <v>14.855722771325002</v>
       </c>
       <c r="K9">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H9,Book1_1,"&lt;"&amp;I9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
@@ -2879,11 +2881,11 @@
         <v>22.945419680000001</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.195381110880001</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.874697789990002</v>
       </c>
       <c r="J10">
@@ -2891,15 +2893,15 @@
         <v>15.535039450435001</v>
       </c>
       <c r="K10">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H10,Book1_1,"&lt;"&amp;I10)</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
@@ -2911,11 +2913,11 @@
         <v>22.95310679</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.874697789990002</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.5540144691</v>
       </c>
       <c r="J11">
@@ -2923,15 +2925,15 @@
         <v>16.214356129545003</v>
       </c>
       <c r="K11">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H11,Book1_1,"&lt;"&amp;I11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
@@ -2943,11 +2945,11 @@
         <v>23.994970160000001</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.5540144691</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.233331148209999</v>
       </c>
       <c r="J12">
@@ -2955,15 +2957,15 @@
         <v>16.893672808654998</v>
       </c>
       <c r="K12">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H12,Book1_1,"&lt;"&amp;I12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
@@ -2975,11 +2977,11 @@
         <v>24.714365529999998</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.233331148209999</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17.912647827319997</v>
       </c>
       <c r="J13">
@@ -2987,15 +2989,15 @@
         <v>17.572989487765</v>
       </c>
       <c r="K13">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H13,Book1_1,"&lt;"&amp;I13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
@@ -3007,11 +3009,11 @@
         <v>25.89012103</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.912647827319997</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18.591964506429996</v>
       </c>
       <c r="J14">
@@ -3019,15 +3021,15 @@
         <v>18.252306166874995</v>
       </c>
       <c r="K14">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H14,Book1_1,"&lt;"&amp;I14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
@@ -3039,11 +3041,11 @@
         <v>26.279387079999999</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.591964506429996</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.271281185539994</v>
       </c>
       <c r="J15">
@@ -3051,15 +3053,15 @@
         <v>18.931622845984997</v>
       </c>
       <c r="K15">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H15,Book1_1,"&lt;"&amp;I15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1250000000000002E-3</v>
       </c>
     </row>
@@ -3071,11 +3073,11 @@
         <v>26.740455560000001</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.271281185539994</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.950597864649993</v>
       </c>
       <c r="J16">
@@ -3083,15 +3085,15 @@
         <v>19.610939525094992</v>
       </c>
       <c r="K16">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H16,Book1_1,"&lt;"&amp;I16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7500000000000003E-3</v>
       </c>
     </row>
@@ -3103,11 +3105,11 @@
         <v>27.441348210000001</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.950597864649993</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20.629914543759991</v>
       </c>
       <c r="J17">
@@ -3115,15 +3117,15 @@
         <v>20.290256204204994</v>
       </c>
       <c r="K17">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H17,Book1_1,"&lt;"&amp;I17)</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7500000000000003E-3</v>
       </c>
     </row>
@@ -3135,11 +3137,11 @@
         <v>27.505019529999998</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.629914543759991</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.30923122286999</v>
       </c>
       <c r="J18">
@@ -3147,15 +3149,15 @@
         <v>20.969572883314989</v>
       </c>
       <c r="K18">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H18,Book1_1,"&lt;"&amp;I18)</f>
-        <v>0</v>
-      </c>
-      <c r="L18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7500000000000003E-3</v>
       </c>
     </row>
@@ -3167,11 +3169,11 @@
         <v>28.34748248</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.30923122286999</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.988547901979988</v>
       </c>
       <c r="J19">
@@ -3179,15 +3181,15 @@
         <v>21.648889562424991</v>
       </c>
       <c r="K19">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H19,Book1_1,"&lt;"&amp;I19)</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7500000000000003E-3</v>
       </c>
     </row>
@@ -3199,11 +3201,11 @@
         <v>28.488635469999998</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.988547901979988</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.667864581089987</v>
       </c>
       <c r="J20">
@@ -3211,15 +3213,15 @@
         <v>22.328206241534986</v>
       </c>
       <c r="K20">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H20,Book1_1,"&lt;"&amp;I20)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25E-3</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -3231,11 +3233,11 @@
         <v>28.507299499999998</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.667864581089987</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23.347181260199985</v>
       </c>
       <c r="J21">
@@ -3243,15 +3245,15 @@
         <v>23.007522920644988</v>
       </c>
       <c r="K21">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H21,Book1_1,"&lt;"&amp;I21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25E-3</v>
       </c>
       <c r="M21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2500000000000003E-3</v>
       </c>
     </row>
@@ -3263,11 +3265,11 @@
         <v>28.540234980000001</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.347181260199985</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.026497939309984</v>
       </c>
       <c r="J22">
@@ -3275,15 +3277,15 @@
         <v>23.686839599754983</v>
       </c>
       <c r="K22">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H22,Book1_1,"&lt;"&amp;I22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.875E-3</v>
       </c>
     </row>
@@ -3295,11 +3297,11 @@
         <v>28.546909230000001</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.026497939309984</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.705814618419982</v>
       </c>
       <c r="J23">
@@ -3307,15 +3309,15 @@
         <v>24.366156278864985</v>
       </c>
       <c r="K23">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H23,Book1_1,"&lt;"&amp;I23)</f>
-        <v>0</v>
-      </c>
-      <c r="L23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.875E-3</v>
       </c>
     </row>
@@ -3327,11 +3329,11 @@
         <v>28.924479269999999</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.705814618419982</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.385131297529981</v>
       </c>
       <c r="J24">
@@ -3339,15 +3341,15 @@
         <v>25.04547295797498</v>
       </c>
       <c r="K24">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H24,Book1_1,"&lt;"&amp;I24)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
@@ -3359,11 +3361,11 @@
         <v>29.06078136</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.385131297529981</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.064447976639979</v>
       </c>
       <c r="J25">
@@ -3371,15 +3373,15 @@
         <v>25.724789637084982</v>
       </c>
       <c r="K25">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H25,Book1_1,"&lt;"&amp;I25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1250000000000003E-3</v>
       </c>
     </row>
@@ -3391,11 +3393,11 @@
         <v>29.48897109</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.064447976639979</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.743764655749978</v>
       </c>
       <c r="J26">
@@ -3403,15 +3405,15 @@
         <v>26.404106316194977</v>
       </c>
       <c r="K26">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H26,Book1_1,"&lt;"&amp;I26)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25E-3</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.3749999999999997E-3</v>
       </c>
     </row>
@@ -3423,11 +3425,11 @@
         <v>29.636420380000001</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.743764655749978</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27.423081334859976</v>
       </c>
       <c r="J27">
@@ -3435,15 +3437,15 @@
         <v>27.083422995304979</v>
       </c>
       <c r="K27">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H27,Book1_1,"&lt;"&amp;I27)</f>
-        <v>0</v>
-      </c>
-      <c r="L27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.3749999999999997E-3</v>
       </c>
     </row>
@@ -3455,11 +3457,11 @@
         <v>30.316379420000001</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.423081334859976</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.102398013969974</v>
       </c>
       <c r="J28">
@@ -3467,15 +3469,15 @@
         <v>27.762739674414973</v>
       </c>
       <c r="K28">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H28,Book1_1,"&lt;"&amp;I28)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25E-3</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0624999999999999E-2</v>
       </c>
     </row>
@@ -3487,11 +3489,11 @@
         <v>30.47846616</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.102398013969974</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.781714693079973</v>
       </c>
       <c r="J29">
@@ -3499,15 +3501,15 @@
         <v>28.442056353524976</v>
       </c>
       <c r="K29">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H29,Book1_1,"&lt;"&amp;I29)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3749999999999998E-2</v>
       </c>
     </row>
@@ -3519,11 +3521,11 @@
         <v>30.722425919999999</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.781714693079973</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.461031372189971</v>
       </c>
       <c r="J30">
@@ -3531,15 +3533,15 @@
         <v>29.12137303263497</v>
       </c>
       <c r="K30">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H30,Book1_1,"&lt;"&amp;I30)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25E-3</v>
       </c>
       <c r="M30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4999999999999998E-2</v>
       </c>
     </row>
@@ -3551,11 +3553,11 @@
         <v>31.50911082</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.461031372189971</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.14034805129997</v>
       </c>
       <c r="J31">
@@ -3563,15 +3565,15 @@
         <v>29.800689711744972</v>
       </c>
       <c r="K31">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H31,Book1_1,"&lt;"&amp;I31)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25E-3</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6249999999999997E-2</v>
       </c>
     </row>
@@ -3583,11 +3585,11 @@
         <v>31.65377715</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.14034805129997</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.819664730409968</v>
       </c>
       <c r="J32">
@@ -3595,15 +3597,15 @@
         <v>30.480006390854967</v>
       </c>
       <c r="K32">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H32,Book1_1,"&lt;"&amp;I32)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="M32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8124999999999995E-2</v>
       </c>
     </row>
@@ -3615,11 +3617,11 @@
         <v>31.710918809999999</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.819664730409968</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31.498981409519967</v>
       </c>
       <c r="J33">
@@ -3627,15 +3629,15 @@
         <v>31.159323069964969</v>
       </c>
       <c r="K33">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H33,Book1_1,"&lt;"&amp;I33)</f>
-        <v>0</v>
-      </c>
-      <c r="L33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8124999999999995E-2</v>
       </c>
     </row>
@@ -3647,11 +3649,11 @@
         <v>31.944822089999999</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.498981409519967</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.178298088629965</v>
       </c>
       <c r="J34">
@@ -3659,15 +3661,15 @@
         <v>31.838639749074964</v>
       </c>
       <c r="K34">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H34,Book1_1,"&lt;"&amp;I34)</f>
+        <f t="shared" ref="K34:K65" si="6">COUNTIFS(Book1_1,"&gt;="&amp;H34,Book1_1,"&lt;"&amp;I34)</f>
         <v>4</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0624999999999994E-2</v>
       </c>
     </row>
@@ -3679,11 +3681,11 @@
         <v>32.184592629999997</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.178298088629965</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32.857614767739967</v>
       </c>
       <c r="J35">
@@ -3691,15 +3693,15 @@
         <v>32.517956428184966</v>
       </c>
       <c r="K35">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H35,Book1_1,"&lt;"&amp;I35)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25E-3</v>
       </c>
       <c r="M35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1874999999999995E-2</v>
       </c>
     </row>
@@ -3711,11 +3713,11 @@
         <v>32.817446779999997</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.857614767739967</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.53693144684997</v>
       </c>
       <c r="J36">
@@ -3723,15 +3725,15 @@
         <v>33.197273107294968</v>
       </c>
       <c r="K36">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H36,Book1_1,"&lt;"&amp;I36)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3749999999999993E-2</v>
       </c>
     </row>
@@ -3743,11 +3745,11 @@
         <v>33.178925999999997</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.53693144684997</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.216248125959972</v>
       </c>
       <c r="J37">
@@ -3755,15 +3757,15 @@
         <v>33.876589786404971</v>
       </c>
       <c r="K37">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H37,Book1_1,"&lt;"&amp;I37)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="M37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5624999999999995E-2</v>
       </c>
     </row>
@@ -3775,11 +3777,11 @@
         <v>33.318796470000002</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.216248125959972</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.895564805069974</v>
       </c>
       <c r="J38">
@@ -3787,15 +3789,15 @@
         <v>34.555906465514973</v>
       </c>
       <c r="K38">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H38,Book1_1,"&lt;"&amp;I38)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25E-3</v>
       </c>
       <c r="M38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6874999999999996E-2</v>
       </c>
     </row>
@@ -3807,11 +3809,11 @@
         <v>33.423931260000003</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.895564805069974</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35.574881484179976</v>
       </c>
       <c r="J39">
@@ -3819,15 +3821,15 @@
         <v>35.235223144624975</v>
       </c>
       <c r="K39">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H39,Book1_1,"&lt;"&amp;I39)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="M39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0624999999999996E-2</v>
       </c>
     </row>
@@ -3839,11 +3841,11 @@
         <v>33.619264729999998</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.574881484179976</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.254198163289978</v>
       </c>
       <c r="J40">
@@ -3851,15 +3853,15 @@
         <v>35.914539823734977</v>
       </c>
       <c r="K40">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H40,Book1_1,"&lt;"&amp;I40)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25E-3</v>
       </c>
       <c r="M40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1874999999999994E-2</v>
       </c>
     </row>
@@ -3871,11 +3873,11 @@
         <v>34.058870089999999</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.254198163289978</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.93351484239998</v>
       </c>
       <c r="J41">
@@ -3883,15 +3885,15 @@
         <v>36.593856502844979</v>
       </c>
       <c r="K41">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H41,Book1_1,"&lt;"&amp;I41)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6874999999999991E-2</v>
       </c>
     </row>
@@ -3903,11 +3905,11 @@
         <v>34.12317367</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.93351484239998</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.612831521509982</v>
       </c>
       <c r="J42">
@@ -3915,15 +3917,15 @@
         <v>37.273173181954981</v>
       </c>
       <c r="K42">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H42,Book1_1,"&lt;"&amp;I42)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1874999999999989E-2</v>
       </c>
     </row>
@@ -3935,11 +3937,11 @@
         <v>34.263111379999998</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.612831521509982</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38.292148200619984</v>
       </c>
       <c r="J43">
@@ -3947,15 +3949,15 @@
         <v>37.952489861064983</v>
       </c>
       <c r="K43">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H43,Book1_1,"&lt;"&amp;I43)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6874999999999986E-2</v>
       </c>
     </row>
@@ -3967,11 +3969,11 @@
         <v>34.282334880000001</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.292148200619984</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38.971464879729986</v>
       </c>
       <c r="J44">
@@ -3979,15 +3981,15 @@
         <v>38.631806540174985</v>
       </c>
       <c r="K44">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H44,Book1_1,"&lt;"&amp;I44)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="M44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0624999999999989E-2</v>
       </c>
     </row>
@@ -3999,11 +4001,11 @@
         <v>34.974468620000003</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.971464879729986</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.650781558839988</v>
       </c>
       <c r="J45">
@@ -4011,15 +4013,15 @@
         <v>39.311123219284987</v>
       </c>
       <c r="K45">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H45,Book1_1,"&lt;"&amp;I45)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3124999999999992E-2</v>
       </c>
     </row>
@@ -4031,11 +4033,11 @@
         <v>35.409758529999998</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.650781558839988</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.33009823794999</v>
       </c>
       <c r="J46">
@@ -4043,15 +4045,15 @@
         <v>39.990439898394989</v>
       </c>
       <c r="K46">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H46,Book1_1,"&lt;"&amp;I46)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8124999999999989E-2</v>
       </c>
     </row>
@@ -4063,11 +4065,11 @@
         <v>35.415791900000002</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.33009823794999</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41.009414917059992</v>
       </c>
       <c r="J47">
@@ -4075,15 +4077,15 @@
         <v>40.669756577504991</v>
       </c>
       <c r="K47">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H47,Book1_1,"&lt;"&amp;I47)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3750000000000004E-3</v>
       </c>
       <c r="M47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2499999999999986E-2</v>
       </c>
     </row>
@@ -4095,11 +4097,11 @@
         <v>35.45807267</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.009414917059992</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41.688731596169994</v>
       </c>
       <c r="J48">
@@ -4107,15 +4109,15 @@
         <v>41.349073256614993</v>
       </c>
       <c r="K48">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H48,Book1_1,"&lt;"&amp;I48)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6249999999999998E-3</v>
       </c>
       <c r="M48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8124999999999991E-2</v>
       </c>
     </row>
@@ -4127,11 +4129,11 @@
         <v>35.496805999999999</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.688731596169994</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.368048275279996</v>
       </c>
       <c r="J49">
@@ -4139,15 +4141,15 @@
         <v>42.028389935724995</v>
       </c>
       <c r="K49">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H49,Book1_1,"&lt;"&amp;I49)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3750000000000004E-3</v>
       </c>
       <c r="M49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
@@ -4159,11 +4161,11 @@
         <v>35.539503140000001</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.368048275279996</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.047364954389998</v>
       </c>
       <c r="J50">
@@ -4171,15 +4173,15 @@
         <v>42.707706614834997</v>
       </c>
       <c r="K50">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H50,Book1_1,"&lt;"&amp;I50)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1250000000000003E-3</v>
       </c>
       <c r="M50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.0625000000000002E-2</v>
       </c>
     </row>
@@ -4191,11 +4193,11 @@
         <v>35.787151639999998</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.047364954389998</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.7266816335</v>
       </c>
       <c r="J51">
@@ -4203,15 +4205,15 @@
         <v>43.387023293944999</v>
       </c>
       <c r="K51">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H51,Book1_1,"&lt;"&amp;I51)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6249999999999998E-3</v>
       </c>
       <c r="M51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.6250000000000007E-2</v>
       </c>
     </row>
@@ -4223,11 +4225,11 @@
         <v>36.235272719999998</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.7266816335</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.405998312610002</v>
       </c>
       <c r="J52">
@@ -4235,15 +4237,15 @@
         <v>44.066339973055001</v>
       </c>
       <c r="K52">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H52,Book1_1,"&lt;"&amp;I52)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.1250000000000012E-2</v>
       </c>
     </row>
@@ -4255,11 +4257,11 @@
         <v>36.272540650000003</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.405998312610002</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.085314991720004</v>
       </c>
       <c r="J53">
@@ -4267,15 +4269,15 @@
         <v>44.745656652165003</v>
       </c>
       <c r="K53">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H53,Book1_1,"&lt;"&amp;I53)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.875E-3</v>
       </c>
       <c r="M53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.8125000000000018E-2</v>
       </c>
     </row>
@@ -4287,11 +4289,11 @@
         <v>36.346597580000001</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.085314991720004</v>
       </c>
       <c r="I54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.764631670830006</v>
       </c>
       <c r="J54">
@@ -4299,15 +4301,15 @@
         <v>45.424973331275005</v>
       </c>
       <c r="K54">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H54,Book1_1,"&lt;"&amp;I54)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="L54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="M54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10562500000000002</v>
       </c>
     </row>
@@ -4319,11 +4321,11 @@
         <v>36.380171179999998</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.764631670830006</v>
       </c>
       <c r="I55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.443948349940008</v>
       </c>
       <c r="J55">
@@ -4331,15 +4333,15 @@
         <v>46.104290010385007</v>
       </c>
       <c r="K55">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H55,Book1_1,"&lt;"&amp;I55)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="M55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11187500000000003</v>
       </c>
     </row>
@@ -4351,11 +4353,11 @@
         <v>36.463536060000003</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46.443948349940008</v>
       </c>
       <c r="I56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47.12326502905001</v>
       </c>
       <c r="J56">
@@ -4363,15 +4365,15 @@
         <v>46.783606689495009</v>
       </c>
       <c r="K56">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H56,Book1_1,"&lt;"&amp;I56)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="L56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.125E-2</v>
       </c>
       <c r="M56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12312500000000003</v>
       </c>
     </row>
@@ -4383,11 +4385,11 @@
         <v>36.488121630000002</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.12326502905001</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47.802581708160012</v>
       </c>
       <c r="J57">
@@ -4395,15 +4397,15 @@
         <v>47.462923368605011</v>
       </c>
       <c r="K57">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H57,Book1_1,"&lt;"&amp;I57)</f>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="L57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7500000000000008E-3</v>
       </c>
       <c r="M57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13187500000000002</v>
       </c>
     </row>
@@ -4415,11 +4417,11 @@
         <v>36.568419300000002</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.802581708160012</v>
       </c>
       <c r="I58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.481898387270014</v>
       </c>
       <c r="J58">
@@ -4427,15 +4429,15 @@
         <v>48.142240047715013</v>
       </c>
       <c r="K58">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H58,Book1_1,"&lt;"&amp;I58)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="L58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="M58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14437500000000003</v>
       </c>
     </row>
@@ -4447,11 +4449,11 @@
         <v>36.809420469999999</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.481898387270014</v>
       </c>
       <c r="I59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.161215066380016</v>
       </c>
       <c r="J59">
@@ -4459,15 +4461,15 @@
         <v>48.821556726825015</v>
       </c>
       <c r="K59">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H59,Book1_1,"&lt;"&amp;I59)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="L59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.875E-3</v>
       </c>
       <c r="M59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15125000000000002</v>
       </c>
     </row>
@@ -4479,11 +4481,11 @@
         <v>36.838421060000002</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.161215066380016</v>
       </c>
       <c r="I60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.840531745490019</v>
       </c>
       <c r="J60">
@@ -4491,15 +4493,15 @@
         <v>49.500873405935018</v>
       </c>
       <c r="K60">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H60,Book1_1,"&lt;"&amp;I60)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="L60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0625000000000001E-2</v>
       </c>
       <c r="M60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16187500000000002</v>
       </c>
     </row>
@@ -4511,11 +4513,11 @@
         <v>36.958128309999999</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.840531745490019</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50.519848424600021</v>
       </c>
       <c r="J61">
@@ -4523,15 +4525,15 @@
         <v>50.18019008504502</v>
       </c>
       <c r="K61">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H61,Book1_1,"&lt;"&amp;I61)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="L61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1875E-2</v>
       </c>
       <c r="M61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17375000000000002</v>
       </c>
     </row>
@@ -4543,11 +4545,11 @@
         <v>36.964821239999999</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.519848424600021</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.199165103710023</v>
       </c>
       <c r="J62">
@@ -4555,15 +4557,15 @@
         <v>50.859506764155022</v>
       </c>
       <c r="K62">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H62,Book1_1,"&lt;"&amp;I62)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="L62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.375E-2</v>
       </c>
       <c r="M62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18750000000000003</v>
       </c>
     </row>
@@ -4575,11 +4577,11 @@
         <v>37.03691817</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.199165103710023</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51.878481782820025</v>
       </c>
       <c r="J63">
@@ -4587,15 +4589,15 @@
         <v>51.538823443265024</v>
       </c>
       <c r="K63">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H63,Book1_1,"&lt;"&amp;I63)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="L63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="M63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20000000000000004</v>
       </c>
     </row>
@@ -4607,11 +4609,11 @@
         <v>37.301999479999999</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.878481782820025</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.557798461930027</v>
       </c>
       <c r="J64">
@@ -4619,15 +4621,15 @@
         <v>52.218140122375026</v>
       </c>
       <c r="K64">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H64,Book1_1,"&lt;"&amp;I64)</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="M64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21000000000000005</v>
       </c>
     </row>
@@ -4639,11 +4641,11 @@
         <v>37.392357099999998</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.557798461930027</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.237115141040029</v>
       </c>
       <c r="J65">
@@ -4651,15 +4653,15 @@
         <v>52.897456801485028</v>
       </c>
       <c r="K65">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H65,Book1_1,"&lt;"&amp;I65)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="L65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3125E-2</v>
       </c>
       <c r="M65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22312500000000005</v>
       </c>
     </row>
@@ -4671,11 +4673,11 @@
         <v>37.500549239999998</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.237115141040029</v>
       </c>
       <c r="I66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.916431820150031</v>
       </c>
       <c r="J66">
@@ -4683,15 +4685,15 @@
         <v>53.57677348059503</v>
       </c>
       <c r="K66">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H66,Book1_1,"&lt;"&amp;I66)</f>
+        <f t="shared" ref="K66:K97" si="7">COUNTIFS(Book1_1,"&gt;="&amp;H66,Book1_1,"&lt;"&amp;I66)</f>
         <v>23</v>
       </c>
       <c r="L66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4375000000000001E-2</v>
       </c>
       <c r="M66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23750000000000004</v>
       </c>
     </row>
@@ -4703,27 +4705,27 @@
         <v>37.501790710000002</v>
       </c>
       <c r="H67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53.916431820150031</v>
       </c>
       <c r="I67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.595748499260033</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="5">AVERAGE(H67:I67)</f>
+        <f t="shared" ref="J67:J130" si="8">AVERAGE(H67:I67)</f>
         <v>54.256090159705032</v>
       </c>
       <c r="K67">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H67,Book1_1,"&lt;"&amp;I67)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="6">K67/$K$202</f>
+        <f t="shared" ref="L67:L130" si="9">K67/$K$202</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="M67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25000000000000006</v>
       </c>
     </row>
@@ -4735,27 +4737,27 @@
         <v>37.505520939999997</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H131" si="7">I67</f>
+        <f t="shared" ref="H68:H131" si="10">I67</f>
         <v>54.595748499260033</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I131" si="8">H68+$F$4</f>
+        <f t="shared" ref="I68:I131" si="11">H68+$F$4</f>
         <v>55.275065178370035</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>54.935406838815034</v>
       </c>
       <c r="K68">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H68,Book1_1,"&lt;"&amp;I68)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="L68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M131" si="9">M67+L68</f>
+        <f t="shared" ref="M68:M131" si="12">M67+L68</f>
         <v>0.26500000000000007</v>
       </c>
     </row>
@@ -4767,27 +4769,27 @@
         <v>37.813257880000002</v>
       </c>
       <c r="H69">
+        <f t="shared" si="10"/>
+        <v>55.275065178370035</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="11"/>
+        <v>55.954381857480037</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="8"/>
+        <v>55.614723517925036</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="7"/>
-        <v>55.275065178370035</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="8"/>
-        <v>55.954381857480037</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="5"/>
-        <v>55.614723517925036</v>
-      </c>
-      <c r="K69">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H69,Book1_1,"&lt;"&amp;I69)</f>
         <v>23</v>
       </c>
       <c r="L69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4375000000000001E-2</v>
       </c>
       <c r="M69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.2793750000000001</v>
       </c>
     </row>
@@ -4799,27 +4801,27 @@
         <v>37.84338228</v>
       </c>
       <c r="H70">
+        <f t="shared" si="10"/>
+        <v>55.954381857480037</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="11"/>
+        <v>56.633698536590039</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>56.294040197035038</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="7"/>
-        <v>55.954381857480037</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="8"/>
-        <v>56.633698536590039</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="5"/>
-        <v>56.294040197035038</v>
-      </c>
-      <c r="K70">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H70,Book1_1,"&lt;"&amp;I70)</f>
         <v>27</v>
       </c>
       <c r="L70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6875000000000001E-2</v>
       </c>
       <c r="M70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.29625000000000012</v>
       </c>
     </row>
@@ -4831,27 +4833,27 @@
         <v>37.856957209999997</v>
       </c>
       <c r="H71">
+        <f t="shared" si="10"/>
+        <v>56.633698536590039</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="11"/>
+        <v>57.313015215700041</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>56.97335687614504</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="7"/>
-        <v>56.633698536590039</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="8"/>
-        <v>57.313015215700041</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="5"/>
-        <v>56.97335687614504</v>
-      </c>
-      <c r="K71">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H71,Book1_1,"&lt;"&amp;I71)</f>
         <v>16</v>
       </c>
       <c r="L71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.01</v>
       </c>
       <c r="M71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.30625000000000013</v>
       </c>
     </row>
@@ -4863,27 +4865,27 @@
         <v>37.914235840000003</v>
       </c>
       <c r="H72">
+        <f t="shared" si="10"/>
+        <v>57.313015215700041</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="11"/>
+        <v>57.992331894810043</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="8"/>
+        <v>57.652673555255042</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="7"/>
-        <v>57.313015215700041</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="8"/>
-        <v>57.992331894810043</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="5"/>
-        <v>57.652673555255042</v>
-      </c>
-      <c r="K72">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H72,Book1_1,"&lt;"&amp;I72)</f>
         <v>21</v>
       </c>
       <c r="L72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3125E-2</v>
       </c>
       <c r="M72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.31937500000000013</v>
       </c>
     </row>
@@ -4895,27 +4897,27 @@
         <v>37.974253429999997</v>
       </c>
       <c r="H73">
+        <f t="shared" si="10"/>
+        <v>57.992331894810043</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="11"/>
+        <v>58.671648573920045</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>58.331990234365044</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="7"/>
-        <v>57.992331894810043</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="8"/>
-        <v>58.671648573920045</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="5"/>
-        <v>58.331990234365044</v>
-      </c>
-      <c r="K73">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H73,Book1_1,"&lt;"&amp;I73)</f>
         <v>30</v>
       </c>
       <c r="L73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="M73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.33812500000000012</v>
       </c>
     </row>
@@ -4927,27 +4929,27 @@
         <v>38.089938119999999</v>
       </c>
       <c r="H74">
+        <f t="shared" si="10"/>
+        <v>58.671648573920045</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="11"/>
+        <v>59.350965253030047</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="8"/>
+        <v>59.011306913475046</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="7"/>
-        <v>58.671648573920045</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="8"/>
-        <v>59.350965253030047</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="5"/>
-        <v>59.011306913475046</v>
-      </c>
-      <c r="K74">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H74,Book1_1,"&lt;"&amp;I74)</f>
         <v>19</v>
       </c>
       <c r="L74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1875E-2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35000000000000014</v>
       </c>
     </row>
@@ -4959,27 +4961,27 @@
         <v>38.104140489999999</v>
       </c>
       <c r="H75">
+        <f t="shared" si="10"/>
+        <v>59.350965253030047</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="11"/>
+        <v>60.030281932140049</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="8"/>
+        <v>59.690623592585048</v>
+      </c>
+      <c r="K75">
         <f t="shared" si="7"/>
-        <v>59.350965253030047</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="8"/>
-        <v>60.030281932140049</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="5"/>
-        <v>59.690623592585048</v>
-      </c>
-      <c r="K75">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H75,Book1_1,"&lt;"&amp;I75)</f>
         <v>25</v>
       </c>
       <c r="L75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5625E-2</v>
       </c>
       <c r="M75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.36562500000000014</v>
       </c>
     </row>
@@ -4991,27 +4993,27 @@
         <v>38.169257350000002</v>
       </c>
       <c r="H76">
+        <f t="shared" si="10"/>
+        <v>60.030281932140049</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="11"/>
+        <v>60.709598611250051</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="8"/>
+        <v>60.36994027169505</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="7"/>
-        <v>60.030281932140049</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="8"/>
-        <v>60.709598611250051</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="5"/>
-        <v>60.36994027169505</v>
-      </c>
-      <c r="K76">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H76,Book1_1,"&lt;"&amp;I76)</f>
         <v>27</v>
       </c>
       <c r="L76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6875000000000001E-2</v>
       </c>
       <c r="M76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.38250000000000017</v>
       </c>
     </row>
@@ -5023,27 +5025,27 @@
         <v>38.37420582</v>
       </c>
       <c r="H77">
+        <f t="shared" si="10"/>
+        <v>60.709598611250051</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="11"/>
+        <v>61.388915290360053</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="8"/>
+        <v>61.049256950805052</v>
+      </c>
+      <c r="K77">
         <f t="shared" si="7"/>
-        <v>60.709598611250051</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="8"/>
-        <v>61.388915290360053</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="5"/>
-        <v>61.049256950805052</v>
-      </c>
-      <c r="K77">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H77,Book1_1,"&lt;"&amp;I77)</f>
         <v>30</v>
       </c>
       <c r="L77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="M77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.40125000000000016</v>
       </c>
     </row>
@@ -5055,27 +5057,27 @@
         <v>38.386883390000001</v>
       </c>
       <c r="H78">
+        <f t="shared" si="10"/>
+        <v>61.388915290360053</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="11"/>
+        <v>62.068231969470055</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="8"/>
+        <v>61.728573629915054</v>
+      </c>
+      <c r="K78">
         <f t="shared" si="7"/>
-        <v>61.388915290360053</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="8"/>
-        <v>62.068231969470055</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="5"/>
-        <v>61.728573629915054</v>
-      </c>
-      <c r="K78">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H78,Book1_1,"&lt;"&amp;I78)</f>
         <v>32</v>
       </c>
       <c r="L78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
       <c r="M78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.42125000000000018</v>
       </c>
     </row>
@@ -5087,27 +5089,27 @@
         <v>38.517741610000002</v>
       </c>
       <c r="H79">
+        <f t="shared" si="10"/>
+        <v>62.068231969470055</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="11"/>
+        <v>62.747548648580057</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="8"/>
+        <v>62.407890309025056</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="7"/>
-        <v>62.068231969470055</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="8"/>
-        <v>62.747548648580057</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="5"/>
-        <v>62.407890309025056</v>
-      </c>
-      <c r="K79">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H79,Book1_1,"&lt;"&amp;I79)</f>
         <v>33</v>
       </c>
       <c r="L79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.0625000000000001E-2</v>
       </c>
       <c r="M79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.44187500000000018</v>
       </c>
     </row>
@@ -5119,27 +5121,27 @@
         <v>38.597889719999998</v>
       </c>
       <c r="H80">
+        <f t="shared" si="10"/>
+        <v>62.747548648580057</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="11"/>
+        <v>63.426865327690059</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="8"/>
+        <v>63.087206988135058</v>
+      </c>
+      <c r="K80">
         <f t="shared" si="7"/>
-        <v>62.747548648580057</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="8"/>
-        <v>63.426865327690059</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="5"/>
-        <v>63.087206988135058</v>
-      </c>
-      <c r="K80">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H80,Book1_1,"&lt;"&amp;I80)</f>
         <v>24</v>
       </c>
       <c r="L80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.4568750000000002</v>
       </c>
     </row>
@@ -5151,27 +5153,27 @@
         <v>38.65756133</v>
       </c>
       <c r="H81">
+        <f t="shared" si="10"/>
+        <v>63.426865327690059</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="11"/>
+        <v>64.106182006800054</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="8"/>
+        <v>63.766523667245053</v>
+      </c>
+      <c r="K81">
         <f t="shared" si="7"/>
-        <v>63.426865327690059</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="8"/>
-        <v>64.106182006800054</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="5"/>
-        <v>63.766523667245053</v>
-      </c>
-      <c r="K81">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H81,Book1_1,"&lt;"&amp;I81)</f>
         <v>34</v>
       </c>
       <c r="L81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="M81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.47812500000000019</v>
       </c>
     </row>
@@ -5183,27 +5185,27 @@
         <v>38.848172959999999</v>
       </c>
       <c r="H82">
+        <f t="shared" si="10"/>
+        <v>64.106182006800054</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="11"/>
+        <v>64.785498685910056</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="8"/>
+        <v>64.445840346355055</v>
+      </c>
+      <c r="K82">
         <f t="shared" si="7"/>
-        <v>64.106182006800054</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="8"/>
-        <v>64.785498685910056</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="5"/>
-        <v>64.445840346355055</v>
-      </c>
-      <c r="K82">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H82,Book1_1,"&lt;"&amp;I82)</f>
         <v>22</v>
       </c>
       <c r="L82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.375E-2</v>
       </c>
       <c r="M82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.49187500000000017</v>
       </c>
     </row>
@@ -5215,27 +5217,27 @@
         <v>39.10224135</v>
       </c>
       <c r="H83">
+        <f t="shared" si="10"/>
+        <v>64.785498685910056</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="11"/>
+        <v>65.464815365020058</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="8"/>
+        <v>65.125157025465057</v>
+      </c>
+      <c r="K83">
         <f t="shared" si="7"/>
-        <v>64.785498685910056</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="8"/>
-        <v>65.464815365020058</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="5"/>
-        <v>65.125157025465057</v>
-      </c>
-      <c r="K83">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H83,Book1_1,"&lt;"&amp;I83)</f>
         <v>26</v>
       </c>
       <c r="L83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6250000000000001E-2</v>
       </c>
       <c r="M83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.50812500000000016</v>
       </c>
     </row>
@@ -5247,27 +5249,27 @@
         <v>39.139020670000001</v>
       </c>
       <c r="H84">
+        <f t="shared" si="10"/>
+        <v>65.464815365020058</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="11"/>
+        <v>66.14413204413006</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="8"/>
+        <v>65.804473704575059</v>
+      </c>
+      <c r="K84">
         <f t="shared" si="7"/>
-        <v>65.464815365020058</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="8"/>
-        <v>66.14413204413006</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="5"/>
-        <v>65.804473704575059</v>
-      </c>
-      <c r="K84">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H84,Book1_1,"&lt;"&amp;I84)</f>
         <v>27</v>
       </c>
       <c r="L84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6875000000000001E-2</v>
       </c>
       <c r="M84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.52500000000000013</v>
       </c>
     </row>
@@ -5279,27 +5281,27 @@
         <v>39.28957904</v>
       </c>
       <c r="H85">
+        <f t="shared" si="10"/>
+        <v>66.14413204413006</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="11"/>
+        <v>66.823448723240062</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="8"/>
+        <v>66.483790383685061</v>
+      </c>
+      <c r="K85">
         <f t="shared" si="7"/>
-        <v>66.14413204413006</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="8"/>
-        <v>66.823448723240062</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="5"/>
-        <v>66.483790383685061</v>
-      </c>
-      <c r="K85">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H85,Book1_1,"&lt;"&amp;I85)</f>
         <v>31</v>
       </c>
       <c r="L85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9375E-2</v>
       </c>
       <c r="M85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.54437500000000016</v>
       </c>
     </row>
@@ -5311,27 +5313,27 @@
         <v>39.617507619999998</v>
       </c>
       <c r="H86">
+        <f t="shared" si="10"/>
+        <v>66.823448723240062</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="11"/>
+        <v>67.502765402350065</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="8"/>
+        <v>67.163107062795063</v>
+      </c>
+      <c r="K86">
         <f t="shared" si="7"/>
-        <v>66.823448723240062</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="8"/>
-        <v>67.502765402350065</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="5"/>
-        <v>67.163107062795063</v>
-      </c>
-      <c r="K86">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H86,Book1_1,"&lt;"&amp;I86)</f>
         <v>28</v>
       </c>
       <c r="L86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="M86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.56187500000000012</v>
       </c>
     </row>
@@ -5343,27 +5345,27 @@
         <v>39.713616760000001</v>
       </c>
       <c r="H87">
+        <f t="shared" si="10"/>
+        <v>67.502765402350065</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="11"/>
+        <v>68.182082081460067</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="8"/>
+        <v>67.842423741905066</v>
+      </c>
+      <c r="K87">
         <f t="shared" si="7"/>
-        <v>67.502765402350065</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="8"/>
-        <v>68.182082081460067</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="5"/>
-        <v>67.842423741905066</v>
-      </c>
-      <c r="K87">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H87,Book1_1,"&lt;"&amp;I87)</f>
         <v>28</v>
       </c>
       <c r="L87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="M87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.57937500000000008</v>
       </c>
     </row>
@@ -5375,27 +5377,27 @@
         <v>39.719856589999999</v>
       </c>
       <c r="H88">
+        <f t="shared" si="10"/>
+        <v>68.182082081460067</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="11"/>
+        <v>68.861398760570069</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="8"/>
+        <v>68.521740421015068</v>
+      </c>
+      <c r="K88">
         <f t="shared" si="7"/>
-        <v>68.182082081460067</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="8"/>
-        <v>68.861398760570069</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="5"/>
-        <v>68.521740421015068</v>
-      </c>
-      <c r="K88">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H88,Book1_1,"&lt;"&amp;I88)</f>
         <v>29</v>
       </c>
       <c r="L88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8124999999999999E-2</v>
       </c>
       <c r="M88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.59750000000000003</v>
       </c>
     </row>
@@ -5407,27 +5409,27 @@
         <v>39.934741719999998</v>
       </c>
       <c r="H89">
+        <f t="shared" si="10"/>
+        <v>68.861398760570069</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="11"/>
+        <v>69.540715439680071</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="8"/>
+        <v>69.20105710012507</v>
+      </c>
+      <c r="K89">
         <f t="shared" si="7"/>
-        <v>68.861398760570069</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="8"/>
-        <v>69.540715439680071</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="5"/>
-        <v>69.20105710012507</v>
-      </c>
-      <c r="K89">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H89,Book1_1,"&lt;"&amp;I89)</f>
         <v>31</v>
       </c>
       <c r="L89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9375E-2</v>
       </c>
       <c r="M89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.61687500000000006</v>
       </c>
     </row>
@@ -5439,27 +5441,27 @@
         <v>39.945345860000003</v>
       </c>
       <c r="H90">
+        <f t="shared" si="10"/>
+        <v>69.540715439680071</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="11"/>
+        <v>70.220032118790073</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="8"/>
+        <v>69.880373779235072</v>
+      </c>
+      <c r="K90">
         <f t="shared" si="7"/>
-        <v>69.540715439680071</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="8"/>
-        <v>70.220032118790073</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="5"/>
-        <v>69.880373779235072</v>
-      </c>
-      <c r="K90">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H90,Book1_1,"&lt;"&amp;I90)</f>
         <v>35</v>
       </c>
       <c r="L90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.1874999999999999E-2</v>
       </c>
       <c r="M90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.63875000000000004</v>
       </c>
     </row>
@@ -5471,27 +5473,27 @@
         <v>39.993998240000003</v>
       </c>
       <c r="H91">
+        <f t="shared" si="10"/>
+        <v>70.220032118790073</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="11"/>
+        <v>70.899348797900075</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="8"/>
+        <v>70.559690458345074</v>
+      </c>
+      <c r="K91">
         <f t="shared" si="7"/>
-        <v>70.220032118790073</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="8"/>
-        <v>70.899348797900075</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="5"/>
-        <v>70.559690458345074</v>
-      </c>
-      <c r="K91">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H91,Book1_1,"&lt;"&amp;I91)</f>
         <v>22</v>
       </c>
       <c r="L91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.375E-2</v>
       </c>
       <c r="M91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.65250000000000008</v>
       </c>
     </row>
@@ -5503,27 +5505,27 @@
         <v>40.196896279999997</v>
       </c>
       <c r="H92">
+        <f t="shared" si="10"/>
+        <v>70.899348797900075</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="11"/>
+        <v>71.578665477010077</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="8"/>
+        <v>71.239007137455076</v>
+      </c>
+      <c r="K92">
         <f t="shared" si="7"/>
-        <v>70.899348797900075</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="8"/>
-        <v>71.578665477010077</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="5"/>
-        <v>71.239007137455076</v>
-      </c>
-      <c r="K92">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H92,Book1_1,"&lt;"&amp;I92)</f>
         <v>22</v>
       </c>
       <c r="L92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.375E-2</v>
       </c>
       <c r="M92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.66625000000000012</v>
       </c>
     </row>
@@ -5535,27 +5537,27 @@
         <v>40.244105490000003</v>
       </c>
       <c r="H93">
+        <f t="shared" si="10"/>
+        <v>71.578665477010077</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="11"/>
+        <v>72.257982156120079</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="8"/>
+        <v>71.918323816565078</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="7"/>
-        <v>71.578665477010077</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="8"/>
-        <v>72.257982156120079</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="5"/>
-        <v>71.918323816565078</v>
-      </c>
-      <c r="K93">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H93,Book1_1,"&lt;"&amp;I93)</f>
         <v>27</v>
       </c>
       <c r="L93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6875000000000001E-2</v>
       </c>
       <c r="M93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.68312500000000009</v>
       </c>
     </row>
@@ -5567,27 +5569,27 @@
         <v>40.280494310000002</v>
       </c>
       <c r="H94">
+        <f t="shared" si="10"/>
+        <v>72.257982156120079</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="11"/>
+        <v>72.937298835230081</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="8"/>
+        <v>72.59764049567508</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="7"/>
-        <v>72.257982156120079</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="8"/>
-        <v>72.937298835230081</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="5"/>
-        <v>72.59764049567508</v>
-      </c>
-      <c r="K94">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H94,Book1_1,"&lt;"&amp;I94)</f>
         <v>25</v>
       </c>
       <c r="L94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5625E-2</v>
       </c>
       <c r="M94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.69875000000000009</v>
       </c>
     </row>
@@ -5599,27 +5601,27 @@
         <v>40.394620240000002</v>
       </c>
       <c r="H95">
+        <f t="shared" si="10"/>
+        <v>72.937298835230081</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="11"/>
+        <v>73.616615514340083</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="8"/>
+        <v>73.276957174785082</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="7"/>
-        <v>72.937298835230081</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="8"/>
-        <v>73.616615514340083</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="5"/>
-        <v>73.276957174785082</v>
-      </c>
-      <c r="K95">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H95,Book1_1,"&lt;"&amp;I95)</f>
         <v>22</v>
       </c>
       <c r="L95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.375E-2</v>
       </c>
       <c r="M95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.71250000000000013</v>
       </c>
     </row>
@@ -5631,27 +5633,27 @@
         <v>40.529372600000002</v>
       </c>
       <c r="H96">
+        <f t="shared" si="10"/>
+        <v>73.616615514340083</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="11"/>
+        <v>74.295932193450085</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="8"/>
+        <v>73.956273853895084</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="7"/>
-        <v>73.616615514340083</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="8"/>
-        <v>74.295932193450085</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="5"/>
-        <v>73.956273853895084</v>
-      </c>
-      <c r="K96">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H96,Book1_1,"&lt;"&amp;I96)</f>
         <v>23</v>
       </c>
       <c r="L96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4375000000000001E-2</v>
       </c>
       <c r="M96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.72687500000000016</v>
       </c>
     </row>
@@ -5663,27 +5665,27 @@
         <v>40.61011955</v>
       </c>
       <c r="H97">
+        <f t="shared" si="10"/>
+        <v>74.295932193450085</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="11"/>
+        <v>74.975248872560087</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="8"/>
+        <v>74.635590533005086</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="7"/>
-        <v>74.295932193450085</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="8"/>
-        <v>74.975248872560087</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="5"/>
-        <v>74.635590533005086</v>
-      </c>
-      <c r="K97">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H97,Book1_1,"&lt;"&amp;I97)</f>
         <v>16</v>
       </c>
       <c r="L97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.01</v>
       </c>
       <c r="M97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.73687500000000017</v>
       </c>
     </row>
@@ -5695,27 +5697,27 @@
         <v>40.653280799999997</v>
       </c>
       <c r="H98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>74.975248872560087</v>
       </c>
       <c r="I98">
+        <f t="shared" si="11"/>
+        <v>75.654565551670089</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="8"/>
-        <v>75.654565551670089</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="5"/>
         <v>75.314907212115088</v>
       </c>
       <c r="K98">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H98,Book1_1,"&lt;"&amp;I98)</f>
+        <f t="shared" ref="K98:K129" si="13">COUNTIFS(Book1_1,"&gt;="&amp;H98,Book1_1,"&lt;"&amp;I98)</f>
         <v>23</v>
       </c>
       <c r="L98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4375000000000001E-2</v>
       </c>
       <c r="M98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.7512500000000002</v>
       </c>
     </row>
@@ -5727,27 +5729,27 @@
         <v>40.726856429999998</v>
       </c>
       <c r="H99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>75.654565551670089</v>
       </c>
       <c r="I99">
+        <f t="shared" si="11"/>
+        <v>76.333882230780091</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="8"/>
-        <v>76.333882230780091</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="5"/>
         <v>75.99422389122509</v>
       </c>
       <c r="K99">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H99,Book1_1,"&lt;"&amp;I99)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="L99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.375E-2</v>
       </c>
       <c r="M99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.76500000000000024</v>
       </c>
     </row>
@@ -5759,27 +5761,27 @@
         <v>40.782395790000002</v>
       </c>
       <c r="H100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>76.333882230780091</v>
       </c>
       <c r="I100">
+        <f t="shared" si="11"/>
+        <v>77.013198909890093</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="8"/>
-        <v>77.013198909890093</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="5"/>
         <v>76.673540570335092</v>
       </c>
       <c r="K100">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H100,Book1_1,"&lt;"&amp;I100)</f>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="L100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1875E-2</v>
       </c>
       <c r="M100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.7768750000000002</v>
       </c>
     </row>
@@ -5791,27 +5793,27 @@
         <v>40.960892989999998</v>
       </c>
       <c r="H101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>77.013198909890093</v>
       </c>
       <c r="I101">
+        <f t="shared" si="11"/>
+        <v>77.692515589000095</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="8"/>
-        <v>77.692515589000095</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="5"/>
         <v>77.352857249445094</v>
       </c>
       <c r="K101">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H101,Book1_1,"&lt;"&amp;I101)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="L101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.3749999999999997E-3</v>
       </c>
       <c r="M101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.78625000000000023</v>
       </c>
     </row>
@@ -5823,27 +5825,27 @@
         <v>41.266189009999998</v>
       </c>
       <c r="H102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>77.692515589000095</v>
       </c>
       <c r="I102">
+        <f t="shared" si="11"/>
+        <v>78.371832268110097</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="8"/>
-        <v>78.371832268110097</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="5"/>
         <v>78.032173928555096</v>
       </c>
       <c r="K102">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H102,Book1_1,"&lt;"&amp;I102)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="L102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3125E-2</v>
       </c>
       <c r="M102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.79937500000000028</v>
       </c>
     </row>
@@ -5855,27 +5857,27 @@
         <v>41.26800781</v>
       </c>
       <c r="H103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>78.371832268110097</v>
       </c>
       <c r="I103">
+        <f t="shared" si="11"/>
+        <v>79.051148947220099</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="8"/>
-        <v>79.051148947220099</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="5"/>
         <v>78.711490607665098</v>
       </c>
       <c r="K103">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H103,Book1_1,"&lt;"&amp;I103)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="L103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.01</v>
       </c>
       <c r="M103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.80937500000000029</v>
       </c>
     </row>
@@ -5887,27 +5889,27 @@
         <v>41.297553110000003</v>
       </c>
       <c r="H104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>79.051148947220099</v>
       </c>
       <c r="I104">
+        <f t="shared" si="11"/>
+        <v>79.730465626330101</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="8"/>
-        <v>79.730465626330101</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="5"/>
         <v>79.3908072867751</v>
       </c>
       <c r="K104">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H104,Book1_1,"&lt;"&amp;I104)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="L104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.1250000000000003E-3</v>
       </c>
       <c r="M104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.81750000000000034</v>
       </c>
     </row>
@@ -5919,27 +5921,27 @@
         <v>41.306398989999998</v>
       </c>
       <c r="H105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>79.730465626330101</v>
       </c>
       <c r="I105">
+        <f t="shared" si="11"/>
+        <v>80.409782305440103</v>
+      </c>
+      <c r="J105">
         <f t="shared" si="8"/>
-        <v>80.409782305440103</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="5"/>
         <v>80.070123965885102</v>
       </c>
       <c r="K105">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H105,Book1_1,"&lt;"&amp;I105)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="L105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0625000000000001E-2</v>
       </c>
       <c r="M105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.82812500000000033</v>
       </c>
     </row>
@@ -5951,27 +5953,27 @@
         <v>41.349845889999997</v>
       </c>
       <c r="H106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>80.409782305440103</v>
       </c>
       <c r="I106">
+        <f t="shared" si="11"/>
+        <v>81.089098984550105</v>
+      </c>
+      <c r="J106">
         <f t="shared" si="8"/>
-        <v>81.089098984550105</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="5"/>
         <v>80.749440644995104</v>
       </c>
       <c r="K106">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H106,Book1_1,"&lt;"&amp;I106)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="L106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0625000000000001E-2</v>
       </c>
       <c r="M106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.83875000000000033</v>
       </c>
     </row>
@@ -5983,27 +5985,27 @@
         <v>41.365871859999999</v>
       </c>
       <c r="H107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81.089098984550105</v>
       </c>
       <c r="I107">
+        <f t="shared" si="11"/>
+        <v>81.768415663660107</v>
+      </c>
+      <c r="J107">
         <f t="shared" si="8"/>
-        <v>81.768415663660107</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="5"/>
         <v>81.428757324105106</v>
       </c>
       <c r="K107">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H107,Book1_1,"&lt;"&amp;I107)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="L107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.01</v>
       </c>
       <c r="M107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.84875000000000034</v>
       </c>
     </row>
@@ -6015,27 +6017,27 @@
         <v>41.528881869999999</v>
       </c>
       <c r="H108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81.768415663660107</v>
       </c>
       <c r="I108">
+        <f t="shared" si="11"/>
+        <v>82.447732342770109</v>
+      </c>
+      <c r="J108">
         <f t="shared" si="8"/>
-        <v>82.447732342770109</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="5"/>
         <v>82.108074003215108</v>
       </c>
       <c r="K108">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H108,Book1_1,"&lt;"&amp;I108)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="L108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="M108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.85500000000000032</v>
       </c>
     </row>
@@ -6047,27 +6049,27 @@
         <v>41.533018419999998</v>
       </c>
       <c r="H109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>82.447732342770109</v>
       </c>
       <c r="I109">
+        <f t="shared" si="11"/>
+        <v>83.127049021880111</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="8"/>
-        <v>83.127049021880111</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="5"/>
         <v>82.78739068232511</v>
       </c>
       <c r="K109">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H109,Book1_1,"&lt;"&amp;I109)</f>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="L109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="M109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.86250000000000027</v>
       </c>
     </row>
@@ -6079,27 +6081,27 @@
         <v>41.657171820000002</v>
       </c>
       <c r="H110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>83.127049021880111</v>
       </c>
       <c r="I110">
+        <f t="shared" si="11"/>
+        <v>83.806365700990114</v>
+      </c>
+      <c r="J110">
         <f t="shared" si="8"/>
-        <v>83.806365700990114</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="5"/>
         <v>83.466707361435112</v>
       </c>
       <c r="K110">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H110,Book1_1,"&lt;"&amp;I110)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="L110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.86750000000000027</v>
       </c>
     </row>
@@ -6111,27 +6113,27 @@
         <v>41.740007159999998</v>
       </c>
       <c r="H111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>83.806365700990114</v>
       </c>
       <c r="I111">
+        <f t="shared" si="11"/>
+        <v>84.485682380100116</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="8"/>
-        <v>84.485682380100116</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="5"/>
         <v>84.146024040545115</v>
       </c>
       <c r="K111">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H111,Book1_1,"&lt;"&amp;I111)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="L111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.87250000000000028</v>
       </c>
     </row>
@@ -6143,27 +6145,27 @@
         <v>42.103927820000003</v>
       </c>
       <c r="H112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>84.485682380100116</v>
       </c>
       <c r="I112">
+        <f t="shared" si="11"/>
+        <v>85.164999059210118</v>
+      </c>
+      <c r="J112">
         <f t="shared" si="8"/>
-        <v>85.164999059210118</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="5"/>
         <v>84.825340719655117</v>
       </c>
       <c r="K112">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H112,Book1_1,"&lt;"&amp;I112)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="L112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="M112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.87625000000000031</v>
       </c>
     </row>
@@ -6175,27 +6177,27 @@
         <v>42.112395990000003</v>
       </c>
       <c r="H113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>85.164999059210118</v>
       </c>
       <c r="I113">
+        <f t="shared" si="11"/>
+        <v>85.84431573832012</v>
+      </c>
+      <c r="J113">
         <f t="shared" si="8"/>
-        <v>85.84431573832012</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="5"/>
         <v>85.504657398765119</v>
       </c>
       <c r="K113">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H113,Book1_1,"&lt;"&amp;I113)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="L113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="M113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.87937500000000035</v>
       </c>
     </row>
@@ -6207,27 +6209,27 @@
         <v>42.197457749999998</v>
       </c>
       <c r="H114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>85.84431573832012</v>
       </c>
       <c r="I114">
+        <f t="shared" si="11"/>
+        <v>86.523632417430122</v>
+      </c>
+      <c r="J114">
         <f t="shared" si="8"/>
-        <v>86.523632417430122</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="5"/>
         <v>86.183974077875121</v>
       </c>
       <c r="K114">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H114,Book1_1,"&lt;"&amp;I114)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="L114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.3750000000000004E-3</v>
       </c>
       <c r="M114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.88375000000000037</v>
       </c>
     </row>
@@ -6239,27 +6241,27 @@
         <v>42.218000510000003</v>
       </c>
       <c r="H115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>86.523632417430122</v>
       </c>
       <c r="I115">
+        <f t="shared" si="11"/>
+        <v>87.202949096540124</v>
+      </c>
+      <c r="J115">
         <f t="shared" si="8"/>
-        <v>87.202949096540124</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="5"/>
         <v>86.863290756985123</v>
       </c>
       <c r="K115">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H115,Book1_1,"&lt;"&amp;I115)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="L115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.875E-3</v>
       </c>
       <c r="M115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89062500000000033</v>
       </c>
     </row>
@@ -6271,27 +6273,27 @@
         <v>42.24806693</v>
       </c>
       <c r="H116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>87.202949096540124</v>
       </c>
       <c r="I116">
+        <f t="shared" si="11"/>
+        <v>87.882265775650126</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="8"/>
-        <v>87.882265775650126</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="5"/>
         <v>87.542607436095125</v>
       </c>
       <c r="K116">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H116,Book1_1,"&lt;"&amp;I116)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="L116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.89562500000000034</v>
       </c>
     </row>
@@ -6303,27 +6305,27 @@
         <v>42.346564020000002</v>
       </c>
       <c r="H117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>87.882265775650126</v>
       </c>
       <c r="I117">
+        <f t="shared" si="11"/>
+        <v>88.561582454760128</v>
+      </c>
+      <c r="J117">
         <f t="shared" si="8"/>
-        <v>88.561582454760128</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="5"/>
         <v>88.221924115205127</v>
       </c>
       <c r="K117">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H117,Book1_1,"&lt;"&amp;I117)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="L117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="M117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.90187500000000032</v>
       </c>
     </row>
@@ -6335,27 +6337,27 @@
         <v>42.386268080000001</v>
       </c>
       <c r="H118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>88.561582454760128</v>
       </c>
       <c r="I118">
+        <f t="shared" si="11"/>
+        <v>89.24089913387013</v>
+      </c>
+      <c r="J118">
         <f t="shared" si="8"/>
-        <v>89.24089913387013</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="5"/>
         <v>88.901240794315129</v>
       </c>
       <c r="K118">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H118,Book1_1,"&lt;"&amp;I118)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="L118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.875E-3</v>
       </c>
       <c r="M118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.90875000000000028</v>
       </c>
     </row>
@@ -6367,27 +6369,27 @@
         <v>42.400356180000003</v>
       </c>
       <c r="H119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>89.24089913387013</v>
       </c>
       <c r="I119">
+        <f t="shared" si="11"/>
+        <v>89.920215812980132</v>
+      </c>
+      <c r="J119">
         <f t="shared" si="8"/>
-        <v>89.920215812980132</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="5"/>
         <v>89.580557473425131</v>
       </c>
       <c r="K119">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H119,Book1_1,"&lt;"&amp;I119)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="L119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="M119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.91500000000000026</v>
       </c>
     </row>
@@ -6399,27 +6401,27 @@
         <v>42.50881184</v>
       </c>
       <c r="H120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>89.920215812980132</v>
       </c>
       <c r="I120">
+        <f t="shared" si="11"/>
+        <v>90.599532492090134</v>
+      </c>
+      <c r="J120">
         <f t="shared" si="8"/>
-        <v>90.599532492090134</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="5"/>
         <v>90.259874152535133</v>
       </c>
       <c r="K120">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H120,Book1_1,"&lt;"&amp;I120)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="L120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="M120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.9181250000000003</v>
       </c>
     </row>
@@ -6431,27 +6433,27 @@
         <v>42.554053609999997</v>
       </c>
       <c r="H121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90.599532492090134</v>
       </c>
       <c r="I121">
+        <f t="shared" si="11"/>
+        <v>91.278849171200136</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="8"/>
-        <v>91.278849171200136</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="5"/>
         <v>90.939190831645135</v>
       </c>
       <c r="K121">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H121,Book1_1,"&lt;"&amp;I121)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="L121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.3750000000000004E-3</v>
       </c>
       <c r="M121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.92250000000000032</v>
       </c>
     </row>
@@ -6463,27 +6465,27 @@
         <v>42.556707680000002</v>
       </c>
       <c r="H122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>91.278849171200136</v>
       </c>
       <c r="I122">
+        <f t="shared" si="11"/>
+        <v>91.958165850310138</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="8"/>
-        <v>91.958165850310138</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="5"/>
         <v>91.618507510755137</v>
       </c>
       <c r="K122">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H122,Book1_1,"&lt;"&amp;I122)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="L122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.7500000000000008E-3</v>
       </c>
       <c r="M122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.93125000000000036</v>
       </c>
     </row>
@@ -6495,27 +6497,27 @@
         <v>42.6802189</v>
       </c>
       <c r="H123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>91.958165850310138</v>
       </c>
       <c r="I123">
+        <f t="shared" si="11"/>
+        <v>92.63748252942014</v>
+      </c>
+      <c r="J123">
         <f t="shared" si="8"/>
-        <v>92.63748252942014</v>
-      </c>
-      <c r="J123">
-        <f t="shared" si="5"/>
         <v>92.297824189865139</v>
       </c>
       <c r="K123">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H123,Book1_1,"&lt;"&amp;I123)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="L123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.93625000000000036</v>
       </c>
     </row>
@@ -6527,27 +6529,27 @@
         <v>42.72067818</v>
       </c>
       <c r="H124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>92.63748252942014</v>
       </c>
       <c r="I124">
+        <f t="shared" si="11"/>
+        <v>93.316799208530142</v>
+      </c>
+      <c r="J124">
         <f t="shared" si="8"/>
-        <v>93.316799208530142</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="5"/>
         <v>92.977140868975141</v>
       </c>
       <c r="K124">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H124,Book1_1,"&lt;"&amp;I124)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="L124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="M124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94000000000000039</v>
       </c>
     </row>
@@ -6559,27 +6561,27 @@
         <v>42.760527809999999</v>
       </c>
       <c r="H125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>93.316799208530142</v>
       </c>
       <c r="I125">
+        <f t="shared" si="11"/>
+        <v>93.996115887640144</v>
+      </c>
+      <c r="J125">
         <f t="shared" si="8"/>
-        <v>93.996115887640144</v>
-      </c>
-      <c r="J125">
-        <f t="shared" si="5"/>
         <v>93.656457548085143</v>
       </c>
       <c r="K125">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H125,Book1_1,"&lt;"&amp;I125)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="L125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.3750000000000004E-3</v>
       </c>
       <c r="M125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94437500000000041</v>
       </c>
     </row>
@@ -6591,27 +6593,27 @@
         <v>42.816166709999997</v>
       </c>
       <c r="H126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>93.996115887640144</v>
       </c>
       <c r="I126">
+        <f t="shared" si="11"/>
+        <v>94.675432566750146</v>
+      </c>
+      <c r="J126">
         <f t="shared" si="8"/>
-        <v>94.675432566750146</v>
-      </c>
-      <c r="J126">
-        <f t="shared" si="5"/>
         <v>94.335774227195145</v>
       </c>
       <c r="K126">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H126,Book1_1,"&lt;"&amp;I126)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.9450000000000004</v>
       </c>
     </row>
@@ -6623,27 +6625,27 @@
         <v>42.944186389999999</v>
       </c>
       <c r="H127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>94.675432566750146</v>
       </c>
       <c r="I127">
+        <f t="shared" si="11"/>
+        <v>95.354749245860148</v>
+      </c>
+      <c r="J127">
         <f t="shared" si="8"/>
-        <v>95.354749245860148</v>
-      </c>
-      <c r="J127">
-        <f t="shared" si="5"/>
         <v>95.015090906305147</v>
       </c>
       <c r="K127">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H127,Book1_1,"&lt;"&amp;I127)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="L127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="M127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94687500000000036</v>
       </c>
     </row>
@@ -6655,27 +6657,27 @@
         <v>42.97939804</v>
       </c>
       <c r="H128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>95.354749245860148</v>
       </c>
       <c r="I128">
+        <f t="shared" si="11"/>
+        <v>96.03406592497015</v>
+      </c>
+      <c r="J128">
         <f t="shared" si="8"/>
-        <v>96.03406592497015</v>
-      </c>
-      <c r="J128">
-        <f t="shared" si="5"/>
         <v>95.694407585415149</v>
       </c>
       <c r="K128">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H128,Book1_1,"&lt;"&amp;I128)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="L128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.6249999999999998E-3</v>
       </c>
       <c r="M128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.95250000000000035</v>
       </c>
     </row>
@@ -6687,27 +6689,27 @@
         <v>42.980161529999997</v>
       </c>
       <c r="H129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>96.03406592497015</v>
       </c>
       <c r="I129">
+        <f t="shared" si="11"/>
+        <v>96.713382604080152</v>
+      </c>
+      <c r="J129">
         <f t="shared" si="8"/>
-        <v>96.713382604080152</v>
-      </c>
-      <c r="J129">
-        <f t="shared" si="5"/>
         <v>96.373724264525151</v>
       </c>
       <c r="K129">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H129,Book1_1,"&lt;"&amp;I129)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.95312500000000033</v>
       </c>
     </row>
@@ -6719,27 +6721,27 @@
         <v>42.995275820000003</v>
       </c>
       <c r="H130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>96.713382604080152</v>
       </c>
       <c r="I130">
+        <f t="shared" si="11"/>
+        <v>97.392699283190154</v>
+      </c>
+      <c r="J130">
         <f t="shared" si="8"/>
-        <v>97.392699283190154</v>
-      </c>
-      <c r="J130">
-        <f t="shared" si="5"/>
         <v>97.053040943635153</v>
       </c>
       <c r="K130">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H130,Book1_1,"&lt;"&amp;I130)</f>
+        <f t="shared" ref="K130:K161" si="14">COUNTIFS(Book1_1,"&gt;="&amp;H130,Book1_1,"&lt;"&amp;I130)</f>
         <v>5</v>
       </c>
       <c r="L130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="M130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.95625000000000038</v>
       </c>
     </row>
@@ -6751,27 +6753,27 @@
         <v>43.057111259999999</v>
       </c>
       <c r="H131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>97.392699283190154</v>
       </c>
       <c r="I131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>98.072015962300156</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="10">AVERAGE(H131:I131)</f>
+        <f t="shared" ref="J131:J194" si="15">AVERAGE(H131:I131)</f>
         <v>97.732357622745155</v>
       </c>
       <c r="K131">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H131,Book1_1,"&lt;"&amp;I131)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L194" si="11">K131/$K$202</f>
+        <f t="shared" ref="L131:L194" si="16">K131/$K$202</f>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="M131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.95937500000000042</v>
       </c>
     </row>
@@ -6783,27 +6785,27 @@
         <v>43.115080800000001</v>
       </c>
       <c r="H132">
-        <f t="shared" ref="H132:H195" si="12">I131</f>
+        <f t="shared" ref="H132:H195" si="17">I131</f>
         <v>98.072015962300156</v>
       </c>
       <c r="I132">
-        <f t="shared" ref="I132:I195" si="13">H132+$F$4</f>
+        <f t="shared" ref="I132:I195" si="18">H132+$F$4</f>
         <v>98.751332641410158</v>
       </c>
       <c r="J132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>98.411674301855157</v>
       </c>
       <c r="K132">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H132,Book1_1,"&lt;"&amp;I132)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M132">
-        <f t="shared" ref="M132:M195" si="14">M131+L132</f>
+        <f t="shared" ref="M132:M195" si="19">M131+L132</f>
         <v>0.96000000000000041</v>
       </c>
     </row>
@@ -6815,27 +6817,27 @@
         <v>43.12701122</v>
       </c>
       <c r="H133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>98.751332641410158</v>
       </c>
       <c r="I133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>99.43064932052016</v>
       </c>
       <c r="J133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>99.090990980965159</v>
       </c>
       <c r="K133">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H133,Book1_1,"&lt;"&amp;I133)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="L133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="M133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.96375000000000044</v>
       </c>
     </row>
@@ -6847,27 +6849,27 @@
         <v>43.197437280000003</v>
       </c>
       <c r="H134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>99.43064932052016</v>
       </c>
       <c r="I134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>100.10996599963016</v>
       </c>
       <c r="J134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>99.770307660075161</v>
       </c>
       <c r="K134">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H134,Book1_1,"&lt;"&amp;I134)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="M134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.96687500000000048</v>
       </c>
     </row>
@@ -6879,27 +6881,27 @@
         <v>43.297641370000001</v>
       </c>
       <c r="H135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>100.10996599963016</v>
       </c>
       <c r="I135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>100.78928267874016</v>
       </c>
       <c r="J135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>100.44962433918516</v>
       </c>
       <c r="K135">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H135,Book1_1,"&lt;"&amp;I135)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.96750000000000047</v>
       </c>
     </row>
@@ -6911,27 +6913,27 @@
         <v>43.44352361</v>
       </c>
       <c r="H136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>100.78928267874016</v>
       </c>
       <c r="I136">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>101.46859935785017</v>
       </c>
       <c r="J136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>101.12894101829517</v>
       </c>
       <c r="K136">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H136,Book1_1,"&lt;"&amp;I136)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="L136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.97000000000000042</v>
       </c>
     </row>
@@ -6943,27 +6945,27 @@
         <v>43.44965457</v>
       </c>
       <c r="H137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>101.46859935785017</v>
       </c>
       <c r="I137">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>102.14791603696017</v>
       </c>
       <c r="J137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>101.80825769740517</v>
       </c>
       <c r="K137">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H137,Book1_1,"&lt;"&amp;I137)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="M137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.97312500000000046</v>
       </c>
     </row>
@@ -6975,27 +6977,27 @@
         <v>43.610383120000002</v>
       </c>
       <c r="H138">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>102.14791603696017</v>
       </c>
       <c r="I138">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>102.82723271607017</v>
       </c>
       <c r="J138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>102.48757437651517</v>
       </c>
       <c r="K138">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H138,Book1_1,"&lt;"&amp;I138)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.25E-3</v>
       </c>
       <c r="M138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.97437500000000044</v>
       </c>
     </row>
@@ -7007,27 +7009,27 @@
         <v>43.660362200000002</v>
       </c>
       <c r="H139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>102.82723271607017</v>
       </c>
       <c r="I139">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>103.50654939518017</v>
       </c>
       <c r="J139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>103.16689105562517</v>
       </c>
       <c r="K139">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H139,Book1_1,"&lt;"&amp;I139)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.97500000000000042</v>
       </c>
     </row>
@@ -7039,27 +7041,27 @@
         <v>43.739428539999999</v>
       </c>
       <c r="H140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>103.50654939518017</v>
       </c>
       <c r="I140">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>104.18586607429017</v>
       </c>
       <c r="J140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>103.84620773473517</v>
       </c>
       <c r="K140">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H140,Book1_1,"&lt;"&amp;I140)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.25E-3</v>
       </c>
       <c r="M140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9762500000000004</v>
       </c>
     </row>
@@ -7071,27 +7073,27 @@
         <v>43.803851029999997</v>
       </c>
       <c r="H141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>104.18586607429017</v>
       </c>
       <c r="I141">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>104.86518275340018</v>
       </c>
       <c r="J141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>104.52552441384518</v>
       </c>
       <c r="K141">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H141,Book1_1,"&lt;"&amp;I141)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9762500000000004</v>
       </c>
     </row>
@@ -7103,27 +7105,27 @@
         <v>44.030830010000003</v>
       </c>
       <c r="H142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>104.86518275340018</v>
       </c>
       <c r="I142">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>105.54449943251018</v>
       </c>
       <c r="J142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>105.20484109295518</v>
       </c>
       <c r="K142">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H142,Book1_1,"&lt;"&amp;I142)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.25E-3</v>
       </c>
       <c r="M142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.97750000000000037</v>
       </c>
     </row>
@@ -7135,27 +7137,27 @@
         <v>44.059568900000002</v>
       </c>
       <c r="H143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>105.54449943251018</v>
       </c>
       <c r="I143">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>106.22381611162018</v>
       </c>
       <c r="J143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>105.88415777206518</v>
       </c>
       <c r="K143">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H143,Book1_1,"&lt;"&amp;I143)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.25E-3</v>
       </c>
       <c r="M143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.97875000000000034</v>
       </c>
     </row>
@@ -7167,27 +7169,27 @@
         <v>44.223726720000002</v>
       </c>
       <c r="H144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>106.22381611162018</v>
       </c>
       <c r="I144">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>106.90313279073018</v>
       </c>
       <c r="J144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>106.56347445117518</v>
       </c>
       <c r="K144">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H144,Book1_1,"&lt;"&amp;I144)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="M144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9806250000000003</v>
       </c>
     </row>
@@ -7199,27 +7201,27 @@
         <v>44.259504880000001</v>
       </c>
       <c r="H145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>106.90313279073018</v>
       </c>
       <c r="I145">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>107.58244946984018</v>
       </c>
       <c r="J145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>107.24279113028518</v>
       </c>
       <c r="K145">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H145,Book1_1,"&lt;"&amp;I145)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.25E-3</v>
       </c>
       <c r="M145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98187500000000028</v>
       </c>
     </row>
@@ -7231,27 +7233,27 @@
         <v>44.30050241</v>
       </c>
       <c r="H146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>107.58244946984018</v>
       </c>
       <c r="I146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>108.26176614895019</v>
       </c>
       <c r="J146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>107.92210780939519</v>
       </c>
       <c r="K146">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H146,Book1_1,"&lt;"&amp;I146)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L146">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98250000000000026</v>
       </c>
     </row>
@@ -7263,27 +7265,27 @@
         <v>44.34744748</v>
       </c>
       <c r="H147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>108.26176614895019</v>
       </c>
       <c r="I147">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>108.94108282806019</v>
       </c>
       <c r="J147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>108.60142448850519</v>
       </c>
       <c r="K147">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H147,Book1_1,"&lt;"&amp;I147)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L147">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98312500000000025</v>
       </c>
     </row>
@@ -7295,27 +7297,27 @@
         <v>44.507510240000002</v>
       </c>
       <c r="H148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>108.94108282806019</v>
       </c>
       <c r="I148">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>109.62039950717019</v>
       </c>
       <c r="J148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>109.28074116761519</v>
       </c>
       <c r="K148">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H148,Book1_1,"&lt;"&amp;I148)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L148">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.25E-3</v>
       </c>
       <c r="M148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98437500000000022</v>
       </c>
     </row>
@@ -7327,27 +7329,27 @@
         <v>44.55715781</v>
       </c>
       <c r="H149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>109.62039950717019</v>
       </c>
       <c r="I149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>110.29971618628019</v>
       </c>
       <c r="J149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>109.96005784672519</v>
       </c>
       <c r="K149">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H149,Book1_1,"&lt;"&amp;I149)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98437500000000022</v>
       </c>
     </row>
@@ -7359,27 +7361,27 @@
         <v>44.627674239999997</v>
       </c>
       <c r="H150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>110.29971618628019</v>
       </c>
       <c r="I150">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>110.9790328653902</v>
       </c>
       <c r="J150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>110.63937452583519</v>
       </c>
       <c r="K150">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H150,Book1_1,"&lt;"&amp;I150)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98500000000000021</v>
       </c>
     </row>
@@ -7391,27 +7393,27 @@
         <v>44.6597607</v>
       </c>
       <c r="H151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>110.9790328653902</v>
       </c>
       <c r="I151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>111.6583495445002</v>
       </c>
       <c r="J151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>111.3186912049452</v>
       </c>
       <c r="K151">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H151,Book1_1,"&lt;"&amp;I151)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98500000000000021</v>
       </c>
     </row>
@@ -7423,27 +7425,27 @@
         <v>44.680296769999998</v>
       </c>
       <c r="H152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>111.6583495445002</v>
       </c>
       <c r="I152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>112.3376662236102</v>
       </c>
       <c r="J152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>111.9980078840552</v>
       </c>
       <c r="K152">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H152,Book1_1,"&lt;"&amp;I152)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L152">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="M152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98687500000000017</v>
       </c>
     </row>
@@ -7455,27 +7457,27 @@
         <v>44.695807539999997</v>
       </c>
       <c r="H153">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>112.3376662236102</v>
       </c>
       <c r="I153">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>113.0169829027202</v>
       </c>
       <c r="J153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>112.6773245631652</v>
       </c>
       <c r="K153">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H153,Book1_1,"&lt;"&amp;I153)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98750000000000016</v>
       </c>
     </row>
@@ -7487,27 +7489,27 @@
         <v>44.706356980000002</v>
       </c>
       <c r="H154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>113.0169829027202</v>
       </c>
       <c r="I154">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>113.6962995818302</v>
       </c>
       <c r="J154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>113.3566412422752</v>
       </c>
       <c r="K154">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H154,Book1_1,"&lt;"&amp;I154)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L154">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.25E-3</v>
       </c>
       <c r="M154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.98875000000000013</v>
       </c>
     </row>
@@ -7519,27 +7521,27 @@
         <v>44.730964190000002</v>
       </c>
       <c r="H155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>113.6962995818302</v>
       </c>
       <c r="I155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>114.37561626094021</v>
       </c>
       <c r="J155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>114.0359579213852</v>
       </c>
       <c r="K155">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H155,Book1_1,"&lt;"&amp;I155)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="M155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99062500000000009</v>
       </c>
     </row>
@@ -7551,27 +7553,27 @@
         <v>44.958801540000003</v>
       </c>
       <c r="H156">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>114.37561626094021</v>
       </c>
       <c r="I156">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>115.05493294005021</v>
       </c>
       <c r="J156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>114.71527460049521</v>
       </c>
       <c r="K156">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H156,Book1_1,"&lt;"&amp;I156)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99125000000000008</v>
       </c>
     </row>
@@ -7583,27 +7585,27 @@
         <v>44.994147009999999</v>
       </c>
       <c r="H157">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>115.05493294005021</v>
       </c>
       <c r="I157">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>115.73424961916021</v>
       </c>
       <c r="J157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>115.39459127960521</v>
       </c>
       <c r="K157">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H157,Book1_1,"&lt;"&amp;I157)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L157">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99125000000000008</v>
       </c>
     </row>
@@ -7615,27 +7617,27 @@
         <v>45.008136280000002</v>
       </c>
       <c r="H158">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>115.73424961916021</v>
       </c>
       <c r="I158">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>116.41356629827021</v>
       </c>
       <c r="J158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>116.07390795871521</v>
       </c>
       <c r="K158">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H158,Book1_1,"&lt;"&amp;I158)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99187500000000006</v>
       </c>
     </row>
@@ -7647,27 +7649,27 @@
         <v>45.085674279999999</v>
       </c>
       <c r="H159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>116.41356629827021</v>
       </c>
       <c r="I159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>117.09288297738021</v>
       </c>
       <c r="J159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>116.75322463782521</v>
       </c>
       <c r="K159">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H159,Book1_1,"&lt;"&amp;I159)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99187500000000006</v>
       </c>
     </row>
@@ -7679,27 +7681,27 @@
         <v>45.268646660000002</v>
       </c>
       <c r="H160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>117.09288297738021</v>
       </c>
       <c r="I160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>117.77219965649022</v>
       </c>
       <c r="J160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>117.43254131693521</v>
       </c>
       <c r="K160">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H160,Book1_1,"&lt;"&amp;I160)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99187500000000006</v>
       </c>
     </row>
@@ -7711,27 +7713,27 @@
         <v>45.373786699999997</v>
       </c>
       <c r="H161">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>117.77219965649022</v>
       </c>
       <c r="I161">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>118.45151633560022</v>
       </c>
       <c r="J161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>118.11185799604522</v>
       </c>
       <c r="K161">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H161,Book1_1,"&lt;"&amp;I161)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L161">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99187500000000006</v>
       </c>
     </row>
@@ -7743,27 +7745,27 @@
         <v>45.439138749999998</v>
       </c>
       <c r="H162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>118.45151633560022</v>
       </c>
       <c r="I162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>119.13083301471022</v>
       </c>
       <c r="J162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>118.79117467515522</v>
       </c>
       <c r="K162">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H162,Book1_1,"&lt;"&amp;I162)</f>
+        <f t="shared" ref="K162:K193" si="20">COUNTIFS(Book1_1,"&gt;="&amp;H162,Book1_1,"&lt;"&amp;I162)</f>
         <v>1</v>
       </c>
       <c r="L162">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99250000000000005</v>
       </c>
     </row>
@@ -7775,27 +7777,27 @@
         <v>45.439551850000001</v>
       </c>
       <c r="H163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>119.13083301471022</v>
       </c>
       <c r="I163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>119.81014969382022</v>
       </c>
       <c r="J163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>119.47049135426522</v>
       </c>
       <c r="K163">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H163,Book1_1,"&lt;"&amp;I163)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99312500000000004</v>
       </c>
     </row>
@@ -7807,27 +7809,27 @@
         <v>45.605713850000001</v>
       </c>
       <c r="H164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>119.81014969382022</v>
       </c>
       <c r="I164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>120.48946637293022</v>
       </c>
       <c r="J164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>120.14980803337522</v>
       </c>
       <c r="K164">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H164,Book1_1,"&lt;"&amp;I164)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99312500000000004</v>
       </c>
     </row>
@@ -7839,27 +7841,27 @@
         <v>45.684101460000001</v>
       </c>
       <c r="H165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>120.48946637293022</v>
       </c>
       <c r="I165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>121.16878305204023</v>
       </c>
       <c r="J165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>120.82912471248522</v>
       </c>
       <c r="K165">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H165,Book1_1,"&lt;"&amp;I165)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99375000000000002</v>
       </c>
     </row>
@@ -7871,27 +7873,27 @@
         <v>45.689404500000002</v>
       </c>
       <c r="H166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>121.16878305204023</v>
       </c>
       <c r="I166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>121.84809973115023</v>
       </c>
       <c r="J166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>121.50844139159523</v>
       </c>
       <c r="K166">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H166,Book1_1,"&lt;"&amp;I166)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99375000000000002</v>
       </c>
     </row>
@@ -7903,27 +7905,27 @@
         <v>45.699920579999997</v>
       </c>
       <c r="H167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>121.84809973115023</v>
       </c>
       <c r="I167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>122.52741641026023</v>
       </c>
       <c r="J167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>122.18775807070523</v>
       </c>
       <c r="K167">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H167,Book1_1,"&lt;"&amp;I167)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99437500000000001</v>
       </c>
     </row>
@@ -7935,27 +7937,27 @@
         <v>45.72073666</v>
       </c>
       <c r="H168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>122.52741641026023</v>
       </c>
       <c r="I168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>123.20673308937023</v>
       </c>
       <c r="J168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>122.86707474981523</v>
       </c>
       <c r="K168">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H168,Book1_1,"&lt;"&amp;I168)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.995</v>
       </c>
     </row>
@@ -7967,27 +7969,27 @@
         <v>45.726334770000001</v>
       </c>
       <c r="H169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>123.20673308937023</v>
       </c>
       <c r="I169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>123.88604976848023</v>
       </c>
       <c r="J169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>123.54639142892523</v>
       </c>
       <c r="K169">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H169,Book1_1,"&lt;"&amp;I169)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L169">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.995</v>
       </c>
     </row>
@@ -7999,27 +8001,27 @@
         <v>45.763494299999998</v>
       </c>
       <c r="H170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>123.88604976848023</v>
       </c>
       <c r="I170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>124.56536644759024</v>
       </c>
       <c r="J170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>124.22570810803523</v>
       </c>
       <c r="K170">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H170,Book1_1,"&lt;"&amp;I170)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L170">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99562499999999998</v>
       </c>
     </row>
@@ -8031,27 +8033,27 @@
         <v>45.896956979999999</v>
       </c>
       <c r="H171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>124.56536644759024</v>
       </c>
       <c r="I171">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>125.24468312670024</v>
       </c>
       <c r="J171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>124.90502478714524</v>
       </c>
       <c r="K171">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H171,Book1_1,"&lt;"&amp;I171)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L171">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99624999999999997</v>
       </c>
     </row>
@@ -8063,27 +8065,27 @@
         <v>45.940442660000002</v>
       </c>
       <c r="H172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>125.24468312670024</v>
       </c>
       <c r="I172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>125.92399980581024</v>
       </c>
       <c r="J172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>125.58434146625524</v>
       </c>
       <c r="K172">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H172,Book1_1,"&lt;"&amp;I172)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L172">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99624999999999997</v>
       </c>
     </row>
@@ -8095,27 +8097,27 @@
         <v>45.977789379999997</v>
       </c>
       <c r="H173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>125.92399980581024</v>
       </c>
       <c r="I173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>126.60331648492024</v>
       </c>
       <c r="J173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>126.26365814536524</v>
       </c>
       <c r="K173">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H173,Book1_1,"&lt;"&amp;I173)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L173">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99624999999999997</v>
       </c>
     </row>
@@ -8127,27 +8129,27 @@
         <v>45.986799810000001</v>
       </c>
       <c r="H174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>126.60331648492024</v>
       </c>
       <c r="I174">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>127.28263316403024</v>
       </c>
       <c r="J174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>126.94297482447524</v>
       </c>
       <c r="K174">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H174,Book1_1,"&lt;"&amp;I174)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L174">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99687499999999996</v>
       </c>
     </row>
@@ -8159,27 +8161,27 @@
         <v>46.011715299999999</v>
       </c>
       <c r="H175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>127.28263316403024</v>
       </c>
       <c r="I175">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>127.96194984314025</v>
       </c>
       <c r="J175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>127.62229150358525</v>
       </c>
       <c r="K175">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H175,Book1_1,"&lt;"&amp;I175)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L175">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99687499999999996</v>
       </c>
     </row>
@@ -8191,27 +8193,27 @@
         <v>46.03603433</v>
       </c>
       <c r="H176">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>127.96194984314025</v>
       </c>
       <c r="I176">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>128.64126652225025</v>
       </c>
       <c r="J176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>128.30160818269525</v>
       </c>
       <c r="K176">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H176,Book1_1,"&lt;"&amp;I176)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99687499999999996</v>
       </c>
     </row>
@@ -8223,27 +8225,27 @@
         <v>46.071457539999997</v>
       </c>
       <c r="H177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>128.64126652225025</v>
       </c>
       <c r="I177">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>129.32058320136025</v>
       </c>
       <c r="J177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>128.98092486180525</v>
       </c>
       <c r="K177">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H177,Book1_1,"&lt;"&amp;I177)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L177">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99687499999999996</v>
       </c>
     </row>
@@ -8255,27 +8257,27 @@
         <v>46.278399950000001</v>
       </c>
       <c r="H178">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>129.32058320136025</v>
       </c>
       <c r="I178">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>129.99989988047025</v>
       </c>
       <c r="J178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>129.66024154091525</v>
       </c>
       <c r="K178">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H178,Book1_1,"&lt;"&amp;I178)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L178">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99749999999999994</v>
       </c>
     </row>
@@ -8287,27 +8289,27 @@
         <v>46.284765829999998</v>
       </c>
       <c r="H179">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>129.99989988047025</v>
       </c>
       <c r="I179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>130.67921655958025</v>
       </c>
       <c r="J179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>130.33955822002525</v>
       </c>
       <c r="K179">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H179,Book1_1,"&lt;"&amp;I179)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L179">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99812499999999993</v>
       </c>
     </row>
@@ -8319,27 +8321,27 @@
         <v>46.32876392</v>
       </c>
       <c r="H180">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>130.67921655958025</v>
       </c>
       <c r="I180">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>131.35853323869026</v>
       </c>
       <c r="J180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>131.01887489913526</v>
       </c>
       <c r="K180">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H180,Book1_1,"&lt;"&amp;I180)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L180">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99812499999999993</v>
       </c>
     </row>
@@ -8351,27 +8353,27 @@
         <v>46.471921700000003</v>
       </c>
       <c r="H181">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>131.35853323869026</v>
       </c>
       <c r="I181">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>132.03784991780026</v>
       </c>
       <c r="J181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>131.69819157824526</v>
       </c>
       <c r="K181">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H181,Book1_1,"&lt;"&amp;I181)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L181">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99812499999999993</v>
       </c>
     </row>
@@ -8383,27 +8385,27 @@
         <v>46.49083778</v>
       </c>
       <c r="H182">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>132.03784991780026</v>
       </c>
       <c r="I182">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>132.71716659691026</v>
       </c>
       <c r="J182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>132.37750825735526</v>
       </c>
       <c r="K182">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H182,Book1_1,"&lt;"&amp;I182)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L182">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99812499999999993</v>
       </c>
     </row>
@@ -8415,27 +8417,27 @@
         <v>46.492151399999997</v>
       </c>
       <c r="H183">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>132.71716659691026</v>
       </c>
       <c r="I183">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>133.39648327602026</v>
       </c>
       <c r="J183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>133.05682493646526</v>
       </c>
       <c r="K183">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H183,Book1_1,"&lt;"&amp;I183)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L183">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99874999999999992</v>
       </c>
     </row>
@@ -8447,27 +8449,27 @@
         <v>46.541941370000004</v>
       </c>
       <c r="H184">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>133.39648327602026</v>
       </c>
       <c r="I184">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>134.07579995513026</v>
       </c>
       <c r="J184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>133.73614161557526</v>
       </c>
       <c r="K184">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H184,Book1_1,"&lt;"&amp;I184)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L184">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99874999999999992</v>
       </c>
     </row>
@@ -8479,27 +8481,27 @@
         <v>46.579616119999997</v>
       </c>
       <c r="H185">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>134.07579995513026</v>
       </c>
       <c r="I185">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>134.75511663424027</v>
       </c>
       <c r="J185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>134.41545829468527</v>
       </c>
       <c r="K185">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H185,Book1_1,"&lt;"&amp;I185)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L185">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99874999999999992</v>
       </c>
     </row>
@@ -8511,27 +8513,27 @@
         <v>46.607536209999999</v>
       </c>
       <c r="H186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>134.75511663424027</v>
       </c>
       <c r="I186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>135.43443331335027</v>
       </c>
       <c r="J186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>135.09477497379527</v>
       </c>
       <c r="K186">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H186,Book1_1,"&lt;"&amp;I186)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L186">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99874999999999992</v>
       </c>
     </row>
@@ -8543,27 +8545,27 @@
         <v>46.625507370000001</v>
       </c>
       <c r="H187">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>135.43443331335027</v>
       </c>
       <c r="I187">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>136.11374999246027</v>
       </c>
       <c r="J187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>135.77409165290527</v>
       </c>
       <c r="K187">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H187,Book1_1,"&lt;"&amp;I187)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L187">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.99874999999999992</v>
       </c>
     </row>
@@ -8575,27 +8577,27 @@
         <v>46.677893470000001</v>
       </c>
       <c r="H188">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>136.11374999246027</v>
       </c>
       <c r="I188">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>136.79306667157027</v>
       </c>
       <c r="J188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>136.45340833201527</v>
       </c>
       <c r="K188">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H188,Book1_1,"&lt;"&amp;I188)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L188">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8607,27 +8609,27 @@
         <v>46.72636911</v>
       </c>
       <c r="H189">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>136.79306667157027</v>
       </c>
       <c r="I189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>137.47238335068027</v>
       </c>
       <c r="J189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>137.13272501112527</v>
       </c>
       <c r="K189">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H189,Book1_1,"&lt;"&amp;I189)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8639,27 +8641,27 @@
         <v>46.735975910000001</v>
       </c>
       <c r="H190">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>137.47238335068027</v>
       </c>
       <c r="I190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>138.15170002979028</v>
       </c>
       <c r="J190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>137.81204169023528</v>
       </c>
       <c r="K190">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H190,Book1_1,"&lt;"&amp;I190)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L190">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8671,27 +8673,27 @@
         <v>46.765884900000003</v>
       </c>
       <c r="H191">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>138.15170002979028</v>
       </c>
       <c r="I191">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>138.83101670890028</v>
       </c>
       <c r="J191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>138.49135836934528</v>
       </c>
       <c r="K191">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H191,Book1_1,"&lt;"&amp;I191)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L191">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8703,27 +8705,27 @@
         <v>46.799942129999998</v>
       </c>
       <c r="H192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>138.83101670890028</v>
       </c>
       <c r="I192">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>139.51033338801028</v>
       </c>
       <c r="J192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>139.17067504845528</v>
       </c>
       <c r="K192">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H192,Book1_1,"&lt;"&amp;I192)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L192">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8735,27 +8737,27 @@
         <v>46.810323969999999</v>
       </c>
       <c r="H193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>139.51033338801028</v>
       </c>
       <c r="I193">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>140.18965006712028</v>
       </c>
       <c r="J193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>139.84999172756528</v>
       </c>
       <c r="K193">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H193,Book1_1,"&lt;"&amp;I193)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L193">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8767,27 +8769,27 @@
         <v>46.813874269999999</v>
       </c>
       <c r="H194">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>140.18965006712028</v>
       </c>
       <c r="I194">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>140.86896674623029</v>
       </c>
       <c r="J194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>140.52930840667528</v>
       </c>
       <c r="K194">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H194,Book1_1,"&lt;"&amp;I194)</f>
+        <f t="shared" ref="K194:K200" si="21">COUNTIFS(Book1_1,"&gt;="&amp;H194,Book1_1,"&lt;"&amp;I194)</f>
         <v>0</v>
       </c>
       <c r="L194">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8799,27 +8801,27 @@
         <v>46.852206529999997</v>
       </c>
       <c r="H195">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>140.86896674623029</v>
       </c>
       <c r="I195">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>141.54828342534029</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J201" si="15">AVERAGE(H195:I195)</f>
+        <f t="shared" ref="J195:J201" si="22">AVERAGE(H195:I195)</f>
         <v>141.20862508578529</v>
       </c>
       <c r="K195">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H195,Book1_1,"&lt;"&amp;I195)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L195">
-        <f t="shared" ref="L195:L201" si="16">K195/$K$202</f>
+        <f t="shared" ref="L195:L201" si="23">K195/$K$202</f>
         <v>0</v>
       </c>
       <c r="M195">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8831,27 +8833,27 @@
         <v>46.868065190000003</v>
       </c>
       <c r="H196">
-        <f t="shared" ref="H196:H201" si="17">I195</f>
+        <f t="shared" ref="H196:H201" si="24">I195</f>
         <v>141.54828342534029</v>
       </c>
       <c r="I196">
-        <f t="shared" ref="I196:I201" si="18">H196+$F$4</f>
+        <f t="shared" ref="I196:I201" si="25">H196+$F$4</f>
         <v>142.22760010445029</v>
       </c>
       <c r="J196">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>141.88794176489529</v>
       </c>
       <c r="K196">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H196,Book1_1,"&lt;"&amp;I196)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L196">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M196">
-        <f t="shared" ref="M196:M201" si="19">M195+L196</f>
+        <f t="shared" ref="M196:M201" si="26">M195+L196</f>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8863,27 +8865,27 @@
         <v>46.869088609999999</v>
       </c>
       <c r="H197">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>142.22760010445029</v>
       </c>
       <c r="I197">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>142.90691678356029</v>
       </c>
       <c r="J197">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>142.56725844400529</v>
       </c>
       <c r="K197">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H197,Book1_1,"&lt;"&amp;I197)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L197">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M197">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8895,27 +8897,27 @@
         <v>47.073446580000002</v>
       </c>
       <c r="H198">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>142.90691678356029</v>
       </c>
       <c r="I198">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>143.58623346267029</v>
       </c>
       <c r="J198">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>143.24657512311529</v>
       </c>
       <c r="K198">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H198,Book1_1,"&lt;"&amp;I198)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L198">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M198">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8927,27 +8929,27 @@
         <v>47.165408030000002</v>
       </c>
       <c r="H199">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>143.58623346267029</v>
       </c>
       <c r="I199">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>144.2655501417803</v>
       </c>
       <c r="J199">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>143.92589180222529</v>
       </c>
       <c r="K199">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H199,Book1_1,"&lt;"&amp;I199)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L199">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M199">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8959,27 +8961,27 @@
         <v>47.2518648</v>
       </c>
       <c r="H200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>144.2655501417803</v>
       </c>
       <c r="I200">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>144.9448668208903</v>
       </c>
       <c r="J200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>144.6052084813353</v>
       </c>
       <c r="K200">
-        <f>COUNTIFS(Book1_1,"&gt;="&amp;H200,Book1_1,"&lt;"&amp;I200)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.9993749999999999</v>
       </c>
     </row>
@@ -8991,15 +8993,15 @@
         <v>47.274697340000003</v>
       </c>
       <c r="H201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>144.9448668208903</v>
       </c>
       <c r="I201">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>145.6241835000003</v>
       </c>
       <c r="J201">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>145.2845251604453</v>
       </c>
       <c r="K201">
@@ -9007,11 +9009,11 @@
         <v>1</v>
       </c>
       <c r="L201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="M201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
